--- a/medicine/Psychotrope/Burgeatine/Burgeatine.xlsx
+++ b/medicine/Psychotrope/Burgeatine/Burgeatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Burgeatine est une marque de liqueur française créée en 1854.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Burgeatine est une maison fondée en 1854. La marque de liqueur fut créée par un négociant. Implantée à Saint-Dizier, la marque de liqueur s'était imposée comme l'une des liqueurs de table du XIXe siècle. Quand son fils lui succéda, l'entreprise possédait plusieurs distilleries[5]. Le siège de la société déménagea à Paris en 1890.  
-Le slogan de la Burgeatine était « la plus exquise des liqueurs de table »[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Burgeatine est une maison fondée en 1854. La marque de liqueur fut créée par un négociant. Implantée à Saint-Dizier, la marque de liqueur s'était imposée comme l'une des liqueurs de table du XIXe siècle. Quand son fils lui succéda, l'entreprise possédait plusieurs distilleries. Le siège de la société déménagea à Paris en 1890.  
+Le slogan de la Burgeatine était « la plus exquise des liqueurs de table »,.
 De nombreux artistes réalisèrent des supports publicitaires pour la marque Burgeatine. Alfred Choubrac créa notamment plusieurs affiches pour la marque.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Les liqueurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Burgeatine proposait deux liqueurs : une de couleur jaune et une verte. Les liqueurs étaient fabriquées avec de l'eau de vie. Les procédés de distillation utilisés avaient pour but d'obtenir une liqueur la plus pure possible. À son apogée, la marque fut récompensée et médaillée pour ses liqueurs et son savoir-faire notamment lors de l'Exposition universelle de 1900. La marque reçut 4 diplômes d'honneur et de grands prix, ainsi que 16 médailles[9],[10]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Burgeatine proposait deux liqueurs : une de couleur jaune et une verte. Les liqueurs étaient fabriquées avec de l'eau de vie. Les procédés de distillation utilisés avaient pour but d'obtenir une liqueur la plus pure possible. À son apogée, la marque fut récompensée et médaillée pour ses liqueurs et son savoir-faire notamment lors de l'Exposition universelle de 1900. La marque reçut 4 diplômes d'honneur et de grands prix, ainsi que 16 médailles,
 La distillerie de la Burgeatine fonctionnait avec des machines à vapeur.
 </t>
         </is>
